--- a/מציאת פרמטרים/Solver.xlsx
+++ b/מציאת פרמטרים/Solver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dkdkmtc\Downloads\AM Modulation\מציאת פרמטרים\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dkdkmtc\Google Drive\בית ספר\פיזיקה\Amplitude Modulation\מציאת פרמטרים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF48794-D8A6-4B16-A0C6-F317606417F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43601D43-B06C-4DD1-8ED3-D564657D4D85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{84A9E52F-654B-4A6C-8BA5-2EC87C125BCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{84A9E52F-654B-4A6C-8BA5-2EC87C125BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,6 +504,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5188601848762142E-2"/>
+                  <c:y val="-0.20439966157715581"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$11</c:f>
@@ -1189,6 +1240,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8171138736523273E-2"/>
+                  <c:y val="-7.2839756124860905E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$2:$D$11</c:f>
@@ -2774,7 +2876,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CF696A5F-83DF-4A7A-B0ED-A630F168BF69}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2785,7 +2887,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF4F2B97-47B1-4C71-A572-CAC0604CB4EB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3205,7 +3307,7 @@
         <v>4.9139999999999997</v>
       </c>
       <c r="H2">
-        <f>5/(SQRT((D2^2*C_G^2*R_G^2)+1))</f>
+        <f t="shared" ref="H2:H11" si="0">5/(SQRT((D2^2*C_G^2*R_G^2)+1))</f>
         <v>4.3397463273375374</v>
       </c>
       <c r="J2">
@@ -3227,11 +3329,11 @@
         <v>4.32</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">E3*4.914/$E$2</f>
+        <f t="shared" ref="F3:F11" si="1">E3*4.914/$E$2</f>
         <v>3.1970602409638555</v>
       </c>
       <c r="H3">
-        <f>5/(SQRT((D3^2*C_G^2*R_G^2)+1))</f>
+        <f t="shared" si="0"/>
         <v>3.2899605576856765</v>
       </c>
     </row>
@@ -3246,11 +3348,11 @@
         <v>3.12</v>
       </c>
       <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.3089879518072292</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>2.3089879518072292</v>
-      </c>
-      <c r="H4">
-        <f>5/(SQRT((D4^2*C_G^2*R_G^2)+1))</f>
         <v>2.5167730805025759</v>
       </c>
     </row>
@@ -3269,11 +3371,11 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.7169397590361444</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.7169397590361444</v>
-      </c>
-      <c r="H5">
-        <f>5/(SQRT((D5^2*C_G^2*R_G^2)+1))</f>
         <v>2.001783997368658</v>
       </c>
     </row>
@@ -3292,11 +3394,11 @@
         <v>1.92</v>
       </c>
       <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.4209156626506025</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.4209156626506025</v>
-      </c>
-      <c r="H6">
-        <f>5/(SQRT((D6^2*C_G^2*R_G^2)+1))</f>
         <v>1.6497314384895949</v>
       </c>
     </row>
@@ -3308,11 +3410,11 @@
         <v>1.58</v>
       </c>
       <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.1692951807228917</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.1692951807228917</v>
-      </c>
-      <c r="H7">
-        <f>5/(SQRT((D7^2*C_G^2*R_G^2)+1))</f>
         <v>1.3982283287060913</v>
       </c>
     </row>
@@ -3324,11 +3426,11 @@
         <v>1.36</v>
       </c>
       <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.0064819277108434</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.0064819277108434</v>
-      </c>
-      <c r="H8">
-        <f>5/(SQRT((D8^2*C_G^2*R_G^2)+1))</f>
         <v>1.2111109709203007</v>
       </c>
     </row>
@@ -3340,11 +3442,11 @@
         <v>1.18</v>
       </c>
       <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.87327108433734923</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.87327108433734923</v>
-      </c>
-      <c r="H9">
-        <f>5/(SQRT((D9^2*C_G^2*R_G^2)+1))</f>
         <v>1.0670843174260212</v>
       </c>
     </row>
@@ -3356,11 +3458,11 @@
         <v>1.06</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.78446385542168684</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.78446385542168684</v>
-      </c>
-      <c r="H10">
-        <f>5/(SQRT((D10^2*C_G^2*R_G^2)+1))</f>
         <v>0.95308569854300418</v>
       </c>
     </row>
@@ -3373,11 +3475,11 @@
         <v>0.96</v>
       </c>
       <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.71045783132530127</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.71045783132530127</v>
-      </c>
-      <c r="H11">
-        <f>5/(SQRT((D11^2*C_G^2*R_G^2)+1))</f>
         <v>0.86075343597339737</v>
       </c>
     </row>
@@ -3442,7 +3544,7 @@
         <v>4.68</v>
       </c>
       <c r="H2">
-        <f>5/(SQRT((D2^2*C_G^2*R_G^2)+1))</f>
+        <f t="shared" ref="H2:H11" si="0">5/(SQRT((D2^2*C_G^2*R_G^2)+1))</f>
         <v>4.0203626528109968</v>
       </c>
       <c r="J2">
@@ -3464,11 +3566,11 @@
         <v>2.48</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">E3*4.68/$E$2</f>
+        <f t="shared" ref="F3:F11" si="1">E3*4.68/$E$2</f>
         <v>2.5013793103448276</v>
       </c>
       <c r="H3">
-        <f>5/(SQRT((D3^2*C_G^2*R_G^2)+1))</f>
+        <f t="shared" si="0"/>
         <v>2.8008460507444815</v>
       </c>
     </row>
@@ -3483,11 +3585,11 @@
         <v>1.68</v>
       </c>
       <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.6944827586206896</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.6944827586206896</v>
-      </c>
-      <c r="H4">
-        <f>5/(SQRT((D4^2*C_G^2*R_G^2)+1))</f>
         <v>2.0549160094683816</v>
       </c>
     </row>
@@ -3506,11 +3608,11 @@
         <v>1.28</v>
       </c>
       <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.2910344827586209</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.2910344827586209</v>
-      </c>
-      <c r="H5">
-        <f>5/(SQRT((D5^2*C_G^2*R_G^2)+1))</f>
         <v>1.60149530308979</v>
       </c>
     </row>
@@ -3533,7 +3635,7 @@
         <v>1.0489655172413792</v>
       </c>
       <c r="H6">
-        <f>5/(SQRT((D6^2*C_G^2*R_G^2)+1))</f>
+        <f t="shared" si="0"/>
         <v>1.3055316079748081</v>
       </c>
     </row>
@@ -3545,11 +3647,11 @@
         <v>0.88</v>
       </c>
       <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.88758620689655165</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.88758620689655165</v>
-      </c>
-      <c r="H7">
-        <f>5/(SQRT((D7^2*C_G^2*R_G^2)+1))</f>
         <v>1.0994550412730115</v>
       </c>
     </row>
@@ -3561,11 +3663,11 @@
         <v>0.76</v>
       </c>
       <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.76655172413793105</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.76655172413793105</v>
-      </c>
-      <c r="H8">
-        <f>5/(SQRT((D8^2*C_G^2*R_G^2)+1))</f>
         <v>0.9484933541174122</v>
       </c>
     </row>
@@ -3577,11 +3679,11 @@
         <v>0.66</v>
       </c>
       <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.66568965517241385</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.66568965517241385</v>
-      </c>
-      <c r="H9">
-        <f>5/(SQRT((D9^2*C_G^2*R_G^2)+1))</f>
         <v>0.83345385276899786</v>
       </c>
     </row>
@@ -3593,11 +3695,11 @@
         <v>0.62</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.62534482758620691</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.62534482758620691</v>
-      </c>
-      <c r="H10">
-        <f>5/(SQRT((D10^2*C_G^2*R_G^2)+1))</f>
         <v>0.74301752380943031</v>
       </c>
     </row>
@@ -3610,11 +3712,11 @@
         <v>0.54</v>
       </c>
       <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.54465517241379313</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.54465517241379313</v>
-      </c>
-      <c r="H11">
-        <f>5/(SQRT((D11^2*C_G^2*R_G^2)+1))</f>
         <v>0.67012309046028296</v>
       </c>
     </row>
